--- a/trunk/cocos2dx_version/Resources/scene4/scene4_position.xlsx
+++ b/trunk/cocos2dx_version/Resources/scene4/scene4_position.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.Work\COCOS_WORK\password_svn\trunk\cocos2dx_version\Resources\scene4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18255" windowHeight="12270"/>
+    <workbookView xWindow="1416" yWindow="60" windowWidth="18252" windowHeight="12276"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -100,29 +105,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>btn_enter_up</t>
-  </si>
-  <si>
     <t>btn_enter_down</t>
-  </si>
-  <si>
-    <t>상동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>on/off/selected</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이하 동일</t>
+    <t>openGL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_enter_up</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,27 +156,48 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -183,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -193,22 +216,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -220,14 +231,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,7 +261,64 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9646920" y="441960"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -281,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,9 +396,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,6 +431,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -522,52 +607,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9"/>
-      <c r="B2" s="1" t="s">
+      <c r="G1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -583,15 +678,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -610,26 +707,42 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" ref="G5" si="0">B5/2+D5</f>
+        <v>259</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5" si="1">$C$3-(C5/2+E5)</f>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>186</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>252</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>511</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>72</v>
       </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" ref="G6:G55" si="2">B6/2+D6</f>
+        <v>604</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H55" si="3">$C$3-(C6/2+E6)</f>
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -645,8 +758,16 @@
       <c r="E7" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>657</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>1034.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -656,31 +777,47 @@
       <c r="C8" s="1">
         <v>137</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>609</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>177</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>657</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1034.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>80</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>114</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>609</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>177</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>649</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -690,42 +827,58 @@
       <c r="C10" s="1">
         <v>95</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>609</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>642.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>1055.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>67</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>95</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>609</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>177</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>642.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>1055.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="5">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
         <v>676</v>
       </c>
       <c r="C13" s="1">
@@ -737,485 +890,989 @@
       <c r="E13" s="1">
         <v>1057</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>359</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <v>676</v>
+      </c>
+      <c r="C14" s="5">
+        <v>86</v>
+      </c>
+      <c r="D14" s="5">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1057</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>359</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>112</v>
+      </c>
+      <c r="C20">
+        <v>112</v>
+      </c>
+      <c r="D20" s="8">
+        <v>21</v>
+      </c>
+      <c r="E20" s="8">
+        <v>355</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>112</v>
+      </c>
+      <c r="C21">
+        <v>112</v>
+      </c>
+      <c r="D21" s="9">
+        <v>134</v>
+      </c>
+      <c r="E21" s="8">
+        <v>355</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>112</v>
+      </c>
+      <c r="C22">
+        <v>112</v>
+      </c>
+      <c r="D22" s="8">
+        <v>247</v>
+      </c>
+      <c r="E22" s="8">
+        <v>355</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>112</v>
+      </c>
+      <c r="C23">
+        <v>112</v>
+      </c>
+      <c r="D23" s="9">
+        <v>360</v>
+      </c>
+      <c r="E23" s="8">
+        <v>355</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>112</v>
+      </c>
+      <c r="C24">
+        <v>112</v>
+      </c>
+      <c r="D24" s="8">
+        <v>473</v>
+      </c>
+      <c r="E24" s="8">
+        <v>355</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>112</v>
+      </c>
+      <c r="C25">
+        <v>112</v>
+      </c>
+      <c r="D25" s="9">
+        <v>586</v>
+      </c>
+      <c r="E25" s="8">
+        <v>355</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>642</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>112</v>
+      </c>
+      <c r="C26">
+        <v>112</v>
+      </c>
+      <c r="D26" s="8">
+        <v>21</v>
+      </c>
+      <c r="E26" s="8">
+        <v>468</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>112</v>
+      </c>
+      <c r="C27">
+        <v>112</v>
+      </c>
+      <c r="D27" s="9">
+        <v>134</v>
+      </c>
+      <c r="E27" s="8">
+        <v>468</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="7">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>112</v>
+      </c>
+      <c r="C28">
+        <v>112</v>
+      </c>
+      <c r="D28" s="8">
+        <v>247</v>
+      </c>
+      <c r="E28" s="8">
+        <v>468</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="7">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>112</v>
+      </c>
+      <c r="C29">
+        <v>112</v>
+      </c>
+      <c r="D29" s="9">
+        <v>360</v>
+      </c>
+      <c r="E29" s="8">
+        <v>468</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="7">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>112</v>
+      </c>
+      <c r="C30">
+        <v>112</v>
+      </c>
+      <c r="D30" s="8">
+        <v>473</v>
+      </c>
+      <c r="E30" s="8">
+        <v>468</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>112</v>
+      </c>
+      <c r="C31">
+        <v>112</v>
+      </c>
+      <c r="D31" s="9">
+        <v>586</v>
+      </c>
+      <c r="E31" s="8">
+        <v>468</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>642</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="7">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>112</v>
+      </c>
+      <c r="C32">
+        <v>112</v>
+      </c>
+      <c r="D32" s="8">
+        <v>21</v>
+      </c>
+      <c r="E32" s="8">
+        <v>581</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="7">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>112</v>
+      </c>
+      <c r="C33">
+        <v>112</v>
+      </c>
+      <c r="D33" s="9">
+        <v>134</v>
+      </c>
+      <c r="E33" s="8">
+        <v>581</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="7">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>112</v>
+      </c>
+      <c r="C34">
+        <v>112</v>
+      </c>
+      <c r="D34" s="8">
+        <v>247</v>
+      </c>
+      <c r="E34" s="8">
+        <v>581</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="7">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>112</v>
+      </c>
+      <c r="C35">
+        <v>112</v>
+      </c>
+      <c r="D35" s="9">
+        <v>360</v>
+      </c>
+      <c r="E35" s="8">
+        <v>581</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="7">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>112</v>
+      </c>
+      <c r="C36">
+        <v>112</v>
+      </c>
+      <c r="D36" s="8">
+        <v>473</v>
+      </c>
+      <c r="E36" s="8">
+        <v>581</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="7">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>112</v>
+      </c>
+      <c r="C37">
+        <v>112</v>
+      </c>
+      <c r="D37" s="9">
+        <v>586</v>
+      </c>
+      <c r="E37" s="8">
+        <v>581</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>642</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="7">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>112</v>
+      </c>
+      <c r="C38">
+        <v>112</v>
+      </c>
+      <c r="D38" s="8">
+        <v>21</v>
+      </c>
+      <c r="E38" s="8">
+        <v>694</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="7">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>112</v>
+      </c>
+      <c r="C39">
+        <v>112</v>
+      </c>
+      <c r="D39" s="9">
+        <v>134</v>
+      </c>
+      <c r="E39" s="8">
+        <v>694</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="7">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>112</v>
+      </c>
+      <c r="C40">
+        <v>112</v>
+      </c>
+      <c r="D40" s="8">
+        <v>247</v>
+      </c>
+      <c r="E40" s="8">
+        <v>694</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="7">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>112</v>
+      </c>
+      <c r="C41">
+        <v>112</v>
+      </c>
+      <c r="D41" s="9">
+        <v>360</v>
+      </c>
+      <c r="E41" s="8">
+        <v>694</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="7">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>112</v>
+      </c>
+      <c r="C42">
+        <v>112</v>
+      </c>
+      <c r="D42" s="8">
+        <v>473</v>
+      </c>
+      <c r="E42" s="8">
+        <v>694</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="7">
+        <v>24</v>
+      </c>
+      <c r="B43">
+        <v>112</v>
+      </c>
+      <c r="C43">
+        <v>112</v>
+      </c>
+      <c r="D43" s="9">
+        <v>586</v>
+      </c>
+      <c r="E43" s="8">
+        <v>694</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>642</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="7">
         <v>25</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>112</v>
-      </c>
-      <c r="C20">
-        <v>112</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="B44">
+        <v>112</v>
+      </c>
+      <c r="C44">
+        <v>112</v>
+      </c>
+      <c r="D44" s="8">
         <v>21</v>
       </c>
-      <c r="E20" s="13">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="11">
-        <v>2</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="E44" s="8">
+        <v>807</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="7">
         <v>26</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="B45">
+        <v>112</v>
+      </c>
+      <c r="C45">
+        <v>112</v>
+      </c>
+      <c r="D45" s="9">
         <v>134</v>
       </c>
-      <c r="E21" s="13">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="11">
-        <v>3</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="13">
+      <c r="E45" s="8">
+        <v>807</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="7">
+        <v>27</v>
+      </c>
+      <c r="B46">
+        <v>112</v>
+      </c>
+      <c r="C46">
+        <v>112</v>
+      </c>
+      <c r="D46" s="8">
         <v>247</v>
       </c>
-      <c r="E22" s="13">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="11">
-        <v>4</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="E46" s="8">
+        <v>807</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="7">
+        <v>28</v>
+      </c>
+      <c r="B47">
+        <v>112</v>
+      </c>
+      <c r="C47">
+        <v>112</v>
+      </c>
+      <c r="D47" s="9">
         <v>360</v>
       </c>
-      <c r="E23" s="13">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="11">
-        <v>5</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="13">
+      <c r="E47" s="8">
+        <v>807</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="7">
+        <v>29</v>
+      </c>
+      <c r="B48">
+        <v>112</v>
+      </c>
+      <c r="C48">
+        <v>112</v>
+      </c>
+      <c r="D48" s="8">
         <v>473</v>
       </c>
-      <c r="E24" s="13">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="11">
-        <v>6</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="14">
+      <c r="E48" s="8">
+        <v>807</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="7">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>112</v>
+      </c>
+      <c r="C49">
+        <v>112</v>
+      </c>
+      <c r="D49" s="9">
         <v>586</v>
       </c>
-      <c r="E25" s="13">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="11">
-        <v>7</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="E49" s="8">
+        <v>807</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>642</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="7">
+        <v>31</v>
+      </c>
+      <c r="B50">
+        <v>112</v>
+      </c>
+      <c r="C50">
+        <v>112</v>
+      </c>
+      <c r="D50" s="8">
         <v>21</v>
       </c>
-      <c r="E26" s="13">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="11">
-        <v>8</v>
-      </c>
-      <c r="D27" s="14">
+      <c r="E50" s="8">
+        <v>920</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="7">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>112</v>
+      </c>
+      <c r="C51">
+        <v>112</v>
+      </c>
+      <c r="D51" s="9">
         <v>134</v>
       </c>
-      <c r="E27" s="13">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="11">
-        <v>9</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="E51" s="8">
+        <v>920</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="7">
+        <v>33</v>
+      </c>
+      <c r="B52">
+        <v>112</v>
+      </c>
+      <c r="C52">
+        <v>112</v>
+      </c>
+      <c r="D52" s="8">
         <v>247</v>
       </c>
-      <c r="E28" s="13">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="11">
-        <v>10</v>
-      </c>
-      <c r="D29" s="14">
+      <c r="E52" s="8">
+        <v>920</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="7">
+        <v>34</v>
+      </c>
+      <c r="B53">
+        <v>112</v>
+      </c>
+      <c r="C53">
+        <v>112</v>
+      </c>
+      <c r="D53" s="9">
         <v>360</v>
       </c>
-      <c r="E29" s="13">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="11">
-        <v>11</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="E53" s="8">
+        <v>920</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="7">
+        <v>35</v>
+      </c>
+      <c r="B54">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>112</v>
+      </c>
+      <c r="D54" s="8">
         <v>473</v>
       </c>
-      <c r="E30" s="13">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="11">
-        <v>12</v>
-      </c>
-      <c r="D31" s="14">
+      <c r="E54" s="8">
+        <v>920</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="7">
+        <v>36</v>
+      </c>
+      <c r="B55">
+        <v>112</v>
+      </c>
+      <c r="C55">
+        <v>112</v>
+      </c>
+      <c r="D55" s="9">
         <v>586</v>
       </c>
-      <c r="E31" s="13">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="11">
-        <v>13</v>
-      </c>
-      <c r="D32" s="13">
-        <v>21</v>
-      </c>
-      <c r="E32" s="13">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="11">
-        <v>14</v>
-      </c>
-      <c r="D33" s="14">
-        <v>134</v>
-      </c>
-      <c r="E33" s="13">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="11">
-        <v>15</v>
-      </c>
-      <c r="D34" s="13">
-        <v>247</v>
-      </c>
-      <c r="E34" s="13">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="11">
-        <v>16</v>
-      </c>
-      <c r="D35" s="14">
-        <v>360</v>
-      </c>
-      <c r="E35" s="13">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="11">
-        <v>17</v>
-      </c>
-      <c r="D36" s="13">
-        <v>473</v>
-      </c>
-      <c r="E36" s="13">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="11">
-        <v>18</v>
-      </c>
-      <c r="D37" s="14">
-        <v>586</v>
-      </c>
-      <c r="E37" s="13">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="11">
-        <v>19</v>
-      </c>
-      <c r="D38" s="13">
-        <v>21</v>
-      </c>
-      <c r="E38" s="13">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="11">
-        <v>20</v>
-      </c>
-      <c r="D39" s="14">
-        <v>134</v>
-      </c>
-      <c r="E39" s="13">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="11">
-        <v>21</v>
-      </c>
-      <c r="D40" s="13">
-        <v>247</v>
-      </c>
-      <c r="E40" s="13">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="11">
-        <v>22</v>
-      </c>
-      <c r="D41" s="14">
-        <v>360</v>
-      </c>
-      <c r="E41" s="13">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="11">
-        <v>23</v>
-      </c>
-      <c r="D42" s="13">
-        <v>473</v>
-      </c>
-      <c r="E42" s="13">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="11">
-        <v>24</v>
-      </c>
-      <c r="D43" s="14">
-        <v>586</v>
-      </c>
-      <c r="E43" s="13">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="11">
-        <v>25</v>
-      </c>
-      <c r="D44" s="13">
-        <v>21</v>
-      </c>
-      <c r="E44" s="13">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="11">
-        <v>26</v>
-      </c>
-      <c r="D45" s="14">
-        <v>134</v>
-      </c>
-      <c r="E45" s="13">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="11">
-        <v>27</v>
-      </c>
-      <c r="D46" s="13">
-        <v>247</v>
-      </c>
-      <c r="E46" s="13">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="11">
-        <v>28</v>
-      </c>
-      <c r="D47" s="14">
-        <v>360</v>
-      </c>
-      <c r="E47" s="13">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="11">
-        <v>29</v>
-      </c>
-      <c r="D48" s="13">
-        <v>473</v>
-      </c>
-      <c r="E48" s="13">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="11">
-        <v>30</v>
-      </c>
-      <c r="D49" s="14">
-        <v>586</v>
-      </c>
-      <c r="E49" s="13">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="11">
-        <v>31</v>
-      </c>
-      <c r="D50" s="13">
-        <v>21</v>
-      </c>
-      <c r="E50" s="13">
+      <c r="E55" s="8">
         <v>920</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="11">
-        <v>32</v>
-      </c>
-      <c r="D51" s="14">
-        <v>134</v>
-      </c>
-      <c r="E51" s="13">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="11">
-        <v>33</v>
-      </c>
-      <c r="D52" s="13">
-        <v>247</v>
-      </c>
-      <c r="E52" s="13">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="11">
-        <v>34</v>
-      </c>
-      <c r="D53" s="14">
-        <v>360</v>
-      </c>
-      <c r="E53" s="13">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="11">
-        <v>35</v>
-      </c>
-      <c r="D54" s="13">
-        <v>473</v>
-      </c>
-      <c r="E54" s="13">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="11">
-        <v>36</v>
-      </c>
-      <c r="D55" s="14">
-        <v>586</v>
-      </c>
-      <c r="E55" s="13">
-        <v>920</v>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>642</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -1225,16 +1882,17 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1242,12 +1900,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
